--- a/Excel/res/services/Pic/IconResize/IconResize.xlsx
+++ b/Excel/res/services/Pic/IconResize/IconResize.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/File/MoveFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/Pic/IconResize/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C18D9A0-CF54-3B47-8A80-B118A0A07FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BCB0DF-AE01-7B4C-BAE0-4AA2897188D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
@@ -249,10 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;l&gt;filters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看sources图片文件夹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,6 +394,10 @@
   </si>
   <si>
     <t>查看生成后的图片结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;l&gt;sizeList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -806,19 +806,40 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,6 +848,24 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -836,77 +875,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1225,7 +1225,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1238,11 +1238,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
@@ -1251,11 +1251,11 @@
       <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="14"/>
@@ -1265,10 +1265,10 @@
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="41"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="15"/>
@@ -1278,10 +1278,10 @@
       <c r="C4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="16"/>
@@ -1291,17 +1291,17 @@
       <c r="C5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="43"/>
+      <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
@@ -1310,21 +1310,21 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="45"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="54"/>
-      <c r="B8" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="54"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
@@ -1336,102 +1336,102 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="55"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="56" t="s">
-        <v>26</v>
+      <c r="D10" s="26" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
+      <c r="C12" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="18"/>
-      <c r="B13" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
+      <c r="B13" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="12"/>
       <c r="B14" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="24"/>
+      <c r="D14" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="13"/>
       <c r="B15" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="24"/>
+      <c r="D15" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="13"/>
       <c r="B16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="28"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="14"/>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
+      <c r="C17" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="15"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="48"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="8">
         <v>16</v>
@@ -1439,10 +1439,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="15"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="48"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" s="8">
         <v>20</v>
@@ -1450,10 +1450,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="15"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="48"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="8">
         <v>29</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="15"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="8">
         <v>32</v>
@@ -1472,243 +1472,243 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="15"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="48"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="46">
+        <v>35</v>
+      </c>
+      <c r="E22" s="23">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="15"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="48"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="46">
+        <v>35</v>
+      </c>
+      <c r="E23" s="23">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="15"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="48"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="46">
+        <v>35</v>
+      </c>
+      <c r="E24" s="23">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="15"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="48"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="46">
+        <v>35</v>
+      </c>
+      <c r="E25" s="23">
         <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="15"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="48"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="46">
+        <v>35</v>
+      </c>
+      <c r="E26" s="23">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="15"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="48"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="46">
+        <v>35</v>
+      </c>
+      <c r="E27" s="23">
         <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="15"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="48"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="46">
+        <v>35</v>
+      </c>
+      <c r="E28" s="23">
         <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="15"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="48"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="46">
+        <v>35</v>
+      </c>
+      <c r="E29" s="23">
         <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="15"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="48"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="46">
+        <v>35</v>
+      </c>
+      <c r="E30" s="23">
         <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="15"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="48"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="46">
+        <v>35</v>
+      </c>
+      <c r="E31" s="23">
         <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="15"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="48"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="46">
+        <v>35</v>
+      </c>
+      <c r="E32" s="23">
         <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="15"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="48"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="46">
+        <v>35</v>
+      </c>
+      <c r="E33" s="23">
         <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="15"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="48"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="46">
+        <v>35</v>
+      </c>
+      <c r="E34" s="23">
         <v>512</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="16"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="49"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="46">
+        <v>35</v>
+      </c>
+      <c r="E35" s="23">
         <v>1024</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="53"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="32"/>
+      <c r="C37" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="44"/>
+      <c r="E37" s="45"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="18"/>
-      <c r="B38" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
+      <c r="B38" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="12"/>
       <c r="B39" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="24"/>
+      <c r="D39" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="28"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="13"/>
       <c r="B40" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="24"/>
+      <c r="D40" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="28"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="13"/>
       <c r="B41" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="24"/>
+      <c r="E41" s="28"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="14"/>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" s="28"/>
-      <c r="E42" s="29"/>
+      <c r="C42" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="15"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="48"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="30"/>
       <c r="D43" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E43" s="8">
         <v>48</v>
@@ -1716,10 +1716,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="15"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="48"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="30"/>
       <c r="D44" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E44" s="8">
         <v>72</v>
@@ -1727,10 +1727,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="15"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="48"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="30"/>
       <c r="D45" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E45" s="8">
         <v>96</v>
@@ -1738,21 +1738,21 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="15"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="48"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="30"/>
       <c r="D46" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E46" s="8">
         <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="25"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="27"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="39"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
@@ -1761,21 +1761,21 @@
       <c r="B48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="32"/>
+      <c r="D48" s="45"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="54"/>
-      <c r="B49" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="34"/>
-      <c r="D49" s="35"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="55"/>
+      <c r="D49" s="56"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="54"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="19" t="s">
         <v>13</v>
       </c>
@@ -1787,25 +1787,24 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="55"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="56" t="s">
-        <v>39</v>
+      <c r="D51" s="26" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="C17:C35"/>
-    <mergeCell ref="B17:B35"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C2:E2"/>
@@ -1819,13 +1818,14 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B13:E13"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C17:C35"/>
+    <mergeCell ref="B17:B35"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="D42:E42"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="C37:E37"/>

--- a/Excel/res/services/Pic/IconResize/IconResize.xlsx
+++ b/Excel/res/services/Pic/IconResize/IconResize.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/Pic/IconResize/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BCB0DF-AE01-7B4C-BAE0-4AA2897188D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7917F428-50B6-5041-ACB2-801C91D39580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
   <si>
     <t>全局参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -818,12 +818,69 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -848,64 +905,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1222,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DCF3CD-B534-DA45-B2FF-D46346E2E15A}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1238,11 +1238,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
+      <c r="A1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
@@ -1251,11 +1251,11 @@
       <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="14"/>
@@ -1265,10 +1265,10 @@
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="47"/>
+      <c r="E3" s="42"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="15"/>
@@ -1278,10 +1278,10 @@
       <c r="C4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="47"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="16"/>
@@ -1291,17 +1291,17 @@
       <c r="C5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="49"/>
+      <c r="E5" s="44"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
@@ -1310,18 +1310,18 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="45"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="24"/>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="24"/>
@@ -1348,11 +1348,11 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
@@ -1361,20 +1361,20 @@
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="18"/>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="12"/>
@@ -1384,10 +1384,10 @@
       <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="13"/>
@@ -1397,10 +1397,10 @@
       <c r="C15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="28"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="13"/>
@@ -1410,26 +1410,26 @@
       <c r="C16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="28"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="14"/>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="15"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="30"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="22" t="s">
         <v>35</v>
       </c>
@@ -1439,8 +1439,8 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="15"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="30"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="22" t="s">
         <v>35</v>
       </c>
@@ -1450,8 +1450,8 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="15"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="30"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="22" t="s">
         <v>35</v>
       </c>
@@ -1461,8 +1461,8 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="15"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="30"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="22" t="s">
         <v>35</v>
       </c>
@@ -1472,8 +1472,8 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="15"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="30"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="22" t="s">
         <v>35</v>
       </c>
@@ -1483,8 +1483,8 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="15"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="30"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="22" t="s">
         <v>35</v>
       </c>
@@ -1494,8 +1494,8 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="15"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="30"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="22" t="s">
         <v>35</v>
       </c>
@@ -1505,8 +1505,8 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="15"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="30"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="22" t="s">
         <v>35</v>
       </c>
@@ -1516,8 +1516,8 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="15"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="30"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="22" t="s">
         <v>35</v>
       </c>
@@ -1527,8 +1527,8 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="15"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="30"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="22" t="s">
         <v>35</v>
       </c>
@@ -1538,273 +1538,290 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="15"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="30"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="22" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="23">
-        <v>120</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="15"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="30"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="49"/>
       <c r="D29" s="22" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="23">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="15"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="30"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="22" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="23">
-        <v>152</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="15"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="30"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="22" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="23">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="15"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="30"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="22" t="s">
         <v>35</v>
       </c>
       <c r="E32" s="23">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="15"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="30"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="22" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="23">
-        <v>256</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="15"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="30"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="22" t="s">
         <v>35</v>
       </c>
       <c r="E34" s="23">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="15"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="23">
         <v>512</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="16"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="23">
+    <row r="36" spans="1:5">
+      <c r="A36" s="16"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="23">
         <v>1024</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="54"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="39"/>
-    </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="56"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="34"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C38" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="45"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="18"/>
-      <c r="B38" s="53" t="s">
+      <c r="D38" s="40"/>
+      <c r="E38" s="31"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="18"/>
+      <c r="B39" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="12"/>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="12"/>
+      <c r="B40" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D40" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="28"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="13"/>
-      <c r="B40" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="28"/>
+      <c r="E40" s="36"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="13"/>
       <c r="B41" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="36"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="13"/>
+      <c r="B42" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D42" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="28"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="14"/>
-      <c r="B42" s="32" t="s">
+      <c r="E42" s="36"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="14"/>
+      <c r="B43" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C43" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="36"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="15"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" s="8">
-        <v>48</v>
-      </c>
+      <c r="D43" s="54"/>
+      <c r="E43" s="55"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="15"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="30"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="22" t="s">
         <v>35</v>
       </c>
       <c r="E44" s="8">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="15"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="30"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="22" t="s">
         <v>35</v>
       </c>
       <c r="E45" s="8">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="15"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="30"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="22" t="s">
         <v>35</v>
       </c>
       <c r="E46" s="8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="15"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="8">
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="37"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="39"/>
-    </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="32"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="34"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="43" t="s">
+      <c r="C49" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="45"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="24"/>
-      <c r="B49" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="55"/>
-      <c r="D49" s="56"/>
+      <c r="D49" s="31"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="24"/>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="D50" s="29"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="24"/>
+      <c r="B51" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C51" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D51" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="25"/>
-      <c r="B51" s="6" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="25"/>
+      <c r="B52" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D52" s="26" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C17:C36"/>
+    <mergeCell ref="B17:B36"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="C38:E38"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C2:E2"/>
@@ -1818,17 +1835,11 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="C17:C35"/>
-    <mergeCell ref="B17:B35"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="C37:E37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
